--- a/TileChart.xlsx
+++ b/TileChart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PICO_8\GamePlayGround\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBE062D-1995-4AD0-BC10-CDF8D49F50E1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D14C1C9-8C41-49EE-B861-99BF186B51A9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20680" yWindow="12870" windowWidth="28760" windowHeight="15780" xr2:uid="{B73FC616-ABE4-4F3A-9329-E3EA559DA0ED}"/>
+    <workbookView xWindow="9640" yWindow="5820" windowWidth="28760" windowHeight="15780" xr2:uid="{B73FC616-ABE4-4F3A-9329-E3EA559DA0ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,33 +36,6 @@
     <t>Core\Side</t>
   </si>
   <si>
-    <t>PCB</t>
-  </si>
-  <si>
-    <t>Server</t>
-  </si>
-  <si>
-    <t>Bridge</t>
-  </si>
-  <si>
-    <t>NetworkCable</t>
-  </si>
-  <si>
-    <t>Driver</t>
-  </si>
-  <si>
-    <t>Processor</t>
-  </si>
-  <si>
-    <t>SerialConnector</t>
-  </si>
-  <si>
-    <t>ParllelConnector</t>
-  </si>
-  <si>
-    <t>Firewall</t>
-  </si>
-  <si>
     <t>◎</t>
   </si>
   <si>
@@ -79,6 +52,33 @@
   </si>
   <si>
     <t>×：不能有</t>
+  </si>
+  <si>
+    <t>0:PCB</t>
+  </si>
+  <si>
+    <t>1:Server</t>
+  </si>
+  <si>
+    <t>2:NetworkCable</t>
+  </si>
+  <si>
+    <t>3:Bridge</t>
+  </si>
+  <si>
+    <t>4:Driver</t>
+  </si>
+  <si>
+    <t>5:Processor</t>
+  </si>
+  <si>
+    <t>1:SerialConnector</t>
+  </si>
+  <si>
+    <t>2:ParllelConnector</t>
+  </si>
+  <si>
+    <t>3:Firewall</t>
   </si>
 </sst>
 </file>
@@ -454,26 +454,27 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="16.6328125" customWidth="1"/>
     <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="111" customHeight="1">
@@ -481,118 +482,118 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J8" s="3"/>
     </row>

--- a/TileChart.xlsx
+++ b/TileChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PICO_8\GamePlayGround\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D14C1C9-8C41-49EE-B861-99BF186B51A9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDA19BF-9C1D-4226-BFB8-AABDBAE64066}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9640" yWindow="5820" windowWidth="28760" windowHeight="15780" xr2:uid="{B73FC616-ABE4-4F3A-9329-E3EA559DA0ED}"/>
   </bookViews>
@@ -454,7 +454,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
